--- a/biology/Médecine/Articulation_cotyloïde/Articulation_cotyloïde.xlsx
+++ b/biology/Médecine/Articulation_cotyloïde/Articulation_cotyloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_cotylo%C3%AFde</t>
+          <t>Articulation_cotyloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une articulation cotyloïde (ou articulation sphéroïde) est une jointure synoviale. Les deux surfaces articulaires sont des segments de sphère, l’une convexe et l’autre concave. Lorsque la partie concave englobe l'équateur de la partie convexe on parle d'énarthrose.
 Ce type d'articulation à trois axes directeurs et trois degrés de liberté. Elle permet un mouvement de flexion / extension, d'abduction / adduction et un mouvement de rotation.
